--- a/lr1/Топологическая диаграмма напряжений.xlsx
+++ b/lr1/Топологическая диаграмма напряжений.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="10665" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Переменный ток" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Ток</t>
   </si>
@@ -109,13 +109,46 @@
   </si>
   <si>
     <t>мкФ</t>
+  </si>
+  <si>
+    <t>U,В</t>
+  </si>
+  <si>
+    <t>I,А</t>
+  </si>
+  <si>
+    <t>𝜑</t>
+  </si>
+  <si>
+    <t>Z=U/I, Ом</t>
+  </si>
+  <si>
+    <t>R=Zcos, Ом</t>
+  </si>
+  <si>
+    <t>X=Zsin,Ом</t>
+  </si>
+  <si>
+    <t>R4L4</t>
+  </si>
+  <si>
+    <t>R5C5</t>
+  </si>
+  <si>
+    <t>R6L6LC6</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +165,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -141,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,20 +190,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3111,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I17"/>
+  <dimension ref="A3:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="A22" sqref="A22:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3151,20 +3210,28 @@
         <v>27</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -3228,63 +3295,63 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>9.9979999999999993</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I11">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12">
-        <v>7.86</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="D12">
-        <v>5.8929999999999998</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="E12">
-        <v>4.7160000000000002</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="F12">
-        <v>3.93</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="G12">
-        <v>2.9470000000000001</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="H12">
-        <v>2.3580000000000001</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="I12">
-        <v>1.9650000000000001</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -3294,11 +3361,11 @@
       </c>
       <c r="D13">
         <f t="shared" ref="D13:I13" si="1">D11/D12</f>
-        <v>16.969285593076531</v>
+        <v>16.977928692699493</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>21.204410517387615</v>
+        <v>21.182203389830509</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
@@ -3306,15 +3373,15 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>33.932813030200201</v>
+        <v>33.898305084745765</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>42.408821034775229</v>
+        <v>42.372881355932208</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>50.890585241730278</v>
+        <v>51.020408163265301</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3354,101 +3421,247 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16">
-        <v>3.0659999999999998</v>
+        <v>0.434</v>
       </c>
       <c r="D16">
-        <v>4.0869999999999997</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="E16">
-        <v>5.109</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="F16">
-        <v>6.1310000000000002</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="G16">
-        <v>8.1750000000000007</v>
+        <v>1.1559999999999999</v>
       </c>
       <c r="H16">
-        <v>10.218999999999999</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="I16">
-        <v>12.262</v>
+        <v>1.734</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>24</v>
       </c>
       <c r="C17">
         <f>C15/C16</f>
-        <v>32.615786040443574</v>
+        <v>23.041474654377879</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:I17" si="3">D15/D16</f>
-        <v>24.46782481037436</v>
+        <f t="shared" ref="D17:H17" si="3">D15/D16</f>
+        <v>17.301038062283737</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>19.573302016050107</v>
+        <v>13.831258644536653</v>
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>16.310552927744251</v>
+        <v>11.534025374855824</v>
       </c>
       <c r="G17">
         <f>G15/G16</f>
-        <v>12.232415902140671</v>
+        <v>8.6505190311418687</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>9.7856933163714661</v>
+        <v>6.9204152249134943</v>
       </c>
       <c r="I17">
         <f>I15/I16</f>
-        <v>8.1552764638721253</v>
+        <v>5.7670126874279122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="5">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.433</v>
+      </c>
+      <c r="D24" s="5">
+        <f>ACOS(I24/(B24*C24))</f>
+        <v>1.1617979363871891</v>
+      </c>
+      <c r="E24" s="5">
+        <f>B24/C24</f>
+        <v>23.094688221709006</v>
+      </c>
+      <c r="F24" s="5">
+        <f>E24*COS(D24)</f>
+        <v>9.1845388262778105</v>
+      </c>
+      <c r="G24" s="5">
+        <f>E24*SIN(D24)</f>
+        <v>21.189829414285999</v>
+      </c>
+      <c r="H24" s="5">
+        <f>ATAN($E$10/$B$6)</f>
+        <v>1.16127297075247</v>
+      </c>
+      <c r="I24">
+        <v>1.722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="5">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" ref="D25:D26" si="4">ACOS(I25/(B25*C25))</f>
+        <v>0.98444888509263284</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" ref="E25:E26" si="5">B25/C25</f>
+        <v>16.611295681063122</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" ref="F25:F26" si="6">E25*COS(D25)</f>
+        <v>9.1913996534254601</v>
+      </c>
+      <c r="G25" s="5">
+        <f>E25*SIN(D25)</f>
+        <v>13.83666566101518</v>
+      </c>
+      <c r="H25" s="5">
+        <f>ATAN(E14/$B$6)</f>
+        <v>0.98434794612200471</v>
+      </c>
+      <c r="I25">
+        <v>3.331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="5">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="4"/>
+        <v>0.6743193998775876</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="5"/>
+        <v>11.79245283018868</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="6"/>
+        <v>9.211463154147383</v>
+      </c>
+      <c r="G26" s="5">
+        <f>E26*SIN(D26)</f>
+        <v>7.3628045140428755</v>
+      </c>
+      <c r="H26" s="5">
+        <f>ATAN(($E$10-E14)/$B$6)</f>
+        <v>0.6739729804776301</v>
+      </c>
+      <c r="I26">
+        <v>6.6239999999999997</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/lr1/Топологическая диаграмма напряжений.xlsx
+++ b/lr1/Топологическая диаграмма напряжений.xlsx
@@ -212,6 +212,8 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -220,8 +222,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -294,7 +294,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3173,7 +3172,7 @@
   <dimension ref="A3:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:H26"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3215,27 +3214,28 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>9.1999999999999993</v>
+        <f>120/B3</f>
+        <v>9.2307692307692299</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9">
         <v>30</v>
       </c>
@@ -3295,7 +3295,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
@@ -3324,7 +3324,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -3351,7 +3351,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -3421,7 +3421,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
@@ -3450,7 +3450,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -3477,7 +3477,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -3511,40 +3511,40 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I23" t="s">
@@ -3552,102 +3552,102 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="1">
         <v>10</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="1">
         <v>0.433</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="1">
         <f>ACOS(I24/(B24*C24))</f>
         <v>1.1617979363871891</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="1">
         <f>B24/C24</f>
         <v>23.094688221709006</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="1">
         <f>E24*COS(D24)</f>
         <v>9.1845388262778105</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="1">
         <f>E24*SIN(D24)</f>
         <v>21.189829414285999</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="1">
         <f>ATAN($E$10/$B$6)</f>
-        <v>1.16127297075247</v>
+        <v>1.160052054948375</v>
       </c>
       <c r="I24">
         <v>1.722</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="1">
         <v>10</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="1">
         <v>0.60199999999999998</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="1">
         <f t="shared" ref="D25:D26" si="4">ACOS(I25/(B25*C25))</f>
         <v>0.98444888509263284</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="1">
         <f t="shared" ref="E25:E26" si="5">B25/C25</f>
         <v>16.611295681063122</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="1">
         <f t="shared" ref="F25:F26" si="6">E25*COS(D25)</f>
         <v>9.1913996534254601</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="1">
         <f>E25*SIN(D25)</f>
         <v>13.83666566101518</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="1">
         <f>ATAN(E14/$B$6)</f>
-        <v>0.98434794612200471</v>
+        <v>0.98280792456521038</v>
       </c>
       <c r="I25">
         <v>3.331</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="1">
         <v>10</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="1">
         <v>0.84799999999999998</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="1">
         <f t="shared" si="4"/>
         <v>0.6743193998775876</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="1">
         <f t="shared" si="5"/>
         <v>11.79245283018868</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="1">
         <f t="shared" si="6"/>
         <v>9.211463154147383</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="1">
         <f>E26*SIN(D26)</f>
         <v>7.3628045140428755</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="1">
         <f>ATAN(($E$10-E14)/$B$6)</f>
-        <v>0.6739729804776301</v>
+        <v>0.67234541640117829</v>
       </c>
       <c r="I26">
         <v>6.6239999999999997</v>

--- a/lr1/Топологическая диаграмма напряжений.xlsx
+++ b/lr1/Топологическая диаграмма напряжений.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="10665" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="10665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Переменный ток" sheetId="2" r:id="rId1"/>
@@ -294,6 +294,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3172,7 +3173,7 @@
   <dimension ref="A3:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3302,7 +3303,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>7.07</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -3329,7 +3330,7 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>0.78600000000000003</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D12">
         <v>0.58899999999999997</v>
@@ -3357,7 +3358,7 @@
       </c>
       <c r="C13">
         <f>C11/C12</f>
-        <v>12.72264631043257</v>
+        <v>12.715827338129495</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:I13" si="1">D11/D12</f>

--- a/lr1/Топологическая диаграмма напряжений.xlsx
+++ b/lr1/Топологическая диаграмма напряжений.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="10665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="Переменный ток" sheetId="2" r:id="rId1"/>
@@ -2835,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3172,7 +3172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/lr1/Топологическая диаграмма напряжений.xlsx
+++ b/lr1/Топологическая диаграмма напряжений.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="10665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="10665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Переменный ток" sheetId="2" r:id="rId1"/>
     <sheet name="Лист1" sheetId="3" r:id="rId2"/>
+    <sheet name="Переменный ток_ALEX" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>Ток</t>
   </si>
@@ -142,6 +143,24 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>Узел</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
   </si>
 </sst>
 </file>
@@ -1388,6 +1407,688 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Векторная диаграмма токов</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Топологическая диаграмма напряжений</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AF02-4228-B3B5-27117ADEEDCC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AF02-4228-B3B5-27117ADEEDCC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-AF02-4228-B3B5-27117ADEEDCC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-AF02-4228-B3B5-27117ADEEDCC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-AF02-4228-B3B5-27117ADEEDCC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-AF02-4228-B3B5-27117ADEEDCC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-AF02-4228-B3B5-27117ADEEDCC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Переменный ток_ALEX'!$F$3:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.904</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.904</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.058999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.058999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.001999999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.058999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.390999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.390999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50.241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Переменный ток_ALEX'!$G$3:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.30299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.30299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.6269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.0000000000001137E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-13.503</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-13.503</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.6999999999999531E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-AF02-4228-B3B5-27117ADEEDCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="417153728"/>
+        <c:axId val="417152480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="417153728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417152480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+        <c:dispUnits>
+          <c:custUnit val="1"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="417152480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417153728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1468,6 +2169,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1985,6 +2726,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2554,6 +3811,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2835,7 +4129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -3668,4 +4962,404 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="C3">
+        <v>1.56</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1.18</v>
+      </c>
+      <c r="C4">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="F4">
+        <f>B3*$B$7</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G4">
+        <f>C3*$B$7</f>
+        <v>15.600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C5">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>0.89</v>
+      </c>
+      <c r="C6">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <f>B4*$B$7</f>
+        <v>11.799999999999999</v>
+      </c>
+      <c r="G7">
+        <f>C4*$B$7</f>
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>B5*$B$7</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="G10">
+        <f>C5*$B$7</f>
+        <v>18.700000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f>B16*B23</f>
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <f>C16*B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>11.904</v>
+      </c>
+      <c r="C17">
+        <v>-0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>9.3320000000000007</v>
+      </c>
+      <c r="C18">
+        <v>-19.13</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>0.155</v>
+      </c>
+      <c r="C19">
+        <v>5.93</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>B21*B23</f>
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <f>C21*B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>28.85</v>
+      </c>
+      <c r="C20">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>37.942999999999998</v>
+      </c>
+      <c r="C22">
+        <v>-5.63</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <f>B17*B23</f>
+        <v>11.904</v>
+      </c>
+      <c r="G22">
+        <f>C17*B23</f>
+        <v>-0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <f>F22</f>
+        <v>11.904</v>
+      </c>
+      <c r="G24">
+        <f>G22</f>
+        <v>-0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <f>F24+B19*B23</f>
+        <v>12.058999999999999</v>
+      </c>
+      <c r="G25">
+        <f>G24+C19*B23</f>
+        <v>5.6269999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <f>F25</f>
+        <v>12.058999999999999</v>
+      </c>
+      <c r="G27">
+        <f>G25</f>
+        <v>5.6269999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>F27+B22*B23</f>
+        <v>50.001999999999995</v>
+      </c>
+      <c r="G28">
+        <f>G27+C22*B23</f>
+        <v>-3.0000000000001137E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <f>F25</f>
+        <v>12.058999999999999</v>
+      </c>
+      <c r="G30">
+        <f>G25</f>
+        <v>5.6269999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <f>F30+B18*B23</f>
+        <v>21.390999999999998</v>
+      </c>
+      <c r="G31">
+        <f>G30+C18*B23</f>
+        <v>-13.503</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <f>F31</f>
+        <v>21.390999999999998</v>
+      </c>
+      <c r="G33">
+        <f>G31</f>
+        <v>-13.503</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>F33+B20*B23</f>
+        <v>50.241</v>
+      </c>
+      <c r="G34">
+        <f>G33+C20*B23</f>
+        <v>9.6999999999999531E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/lr1/Топологическая диаграмма напряжений.xlsx
+++ b/lr1/Топологическая диаграмма напряжений.xlsx
@@ -167,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,13 +192,27 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -229,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -241,6 +255,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1858,10 +1873,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -4968,8 +4983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5164,11 +5179,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -5188,9 +5203,8 @@
         <f>B21*B23</f>
         <v>50</v>
       </c>
-      <c r="G19">
-        <f>C21*B23</f>
-        <v>0</v>
+      <c r="G19" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5211,9 +5225,6 @@
       <c r="B21">
         <v>50</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
       <c r="E21">
         <v>1</v>
       </c>
@@ -5360,6 +5371,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/lr1/Топологическая диаграмма напряжений.xlsx
+++ b/lr1/Топологическая диаграмма напряжений.xlsx
@@ -167,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +200,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -256,6 +269,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1873,10 +1888,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -4984,7 +4999,7 @@
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5179,11 +5194,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>0</v>
       </c>
-      <c r="G18">
-        <v>1</v>
+      <c r="G18" s="9">
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -5204,7 +5219,7 @@
         <v>50</v>
       </c>
       <c r="G19" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
